--- a/biology/Botanique/Bidens_tripartita/Bidens_tripartita.xlsx
+++ b/biology/Botanique/Bidens_tripartita/Bidens_tripartita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bident tripartite ou bident à feuilles tripartites (Bidens tripartita) est une espèce de plante à fleurs de la famille des Asteraceae. C'est une espèce commune dans les lieux humides d'Europe et d'Asie occidentale. Elle est aussi quelquefois appelée chanvre d'eau.
 </t>
@@ -511,15 +523,13 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Bidens tripartita a été décrite par le naturaliste suédois Carl von Linné en 1753[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bidens tripartita a été décrite par le naturaliste suédois Carl von Linné en 1753.
 Le nom générique, bident, du latin bidens se réfère à la constitution des fruits qui comportent généralement deux arêtes à leur sommet. Le nom spécifique, tripartita, rappelle la forme des feuilles généralement divisées en trois.
-Noms vernaculaires
-bident à feuilles tripartites ou bident tripartite[2]
-chanvre d'eau ou chanvre aquatique (Ces dénominations sont communes à plusieurs espèces)
-cornuet
-eupatoire bâtarde [3].</t>
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>bident à feuilles tripartites ou bident tripartite
+chanvre d'eau ou chanvre aquatique (Ces dénominations sont communes à plusieurs espèces)
+cornuet
+eupatoire bâtarde .</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bidens_tripartita</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bidens_tripartita</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Habitus
@@ -563,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bidens_tripartita</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bidens_tripartita</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bident tripartite est originaire des régions tempérées de l'ancien monde : Europe, Afrique du Nord et Asie. On le rencontre dans la plupart des pays d'Europe, de la Finlande au Portugal et des îles britanniques à l'Ukraine. En Asie on le trouve depuis le Moyen-Orient et l'Asie centrale jusqu'en Extrême-Orient (Chine, Japon), ainsi que dans le sous-continent indien.
 L'espèce s'est naturalisée dans les autres continents.
@@ -596,33 +649,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bidens_tripartita</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bidens_tripartita</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des sous-espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 décembre 2014)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 décembre 2014) :
 forme Bidens pilosa f. dondiifolia
 forme Bidens pilosa f. pilosa
 forme Bidens pilosa f. radiata
@@ -630,10 +685,10 @@
 variété Bidens pilosa var. alausensis
 variété Bidens pilosa var. apiifolia
 variété Bidens pilosa var. pilosa
-Selon The Plant List            (8 décembre 2014)[5] :
+Selon The Plant List            (8 décembre 2014) :
 sous-espèce Bidens tripartita subsp. bullatus (L.) Rouy
 variété Bidens tripartita var. repens (D.Don) Sherff
-Selon Tropicos                                           (8 décembre 2014)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 décembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Bidens tripartita var. cernuifolia Sherff
 variété Bidens tripartita var. fallax Warnst.
 variété Bidens tripartita var. heterodoxa Fernald
@@ -647,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bidens_tripartita</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bidens_tripartita</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce considérée comme une mauvaise herbe. Sa racine aurait été utilisée autrefois contre les morsures de scorpions.
 </t>
